--- a/Runs/Final_PDI1_RLU2/ARPE19/IV_Validation/Validation_set.xlsx
+++ b/Runs/Final_PDI1_RLU2/ARPE19/IV_Validation/Validation_set.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>888</v>
+        <v>12292</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -509,27 +509,27 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.004108742822498138</v>
+        <v>-0.03219976809333189</v>
       </c>
       <c r="K2" t="n">
-        <v>1.974936668782761</v>
+        <v>1.803581414630675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>95</v>
+        <v>13512</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -546,101 +546,101 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002927333217570311</v>
+        <v>-0.02076262833375528</v>
       </c>
       <c r="K3" t="n">
-        <v>2.017856732627179</v>
+        <v>1.873347967164093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1513</v>
+        <v>2711</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>9.784000000000001</v>
+        <v>9.3028</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8806656720833289</v>
+        <v>-0.01909817385362694</v>
       </c>
       <c r="K4" t="n">
-        <v>7.372060599708306</v>
+        <v>1.883501139492876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1333</v>
+        <v>7506</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>9.784000000000001</v>
+        <v>9.3028</v>
       </c>
       <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
         <v>9</v>
       </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
       <c r="G5" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
         <v>55</v>
       </c>
       <c r="I5" t="n">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>0.950788716592841</v>
+        <v>-0.005086681177133375</v>
       </c>
       <c r="K5" t="n">
-        <v>7.79981117121633</v>
+        <v>1.968971244819486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2106</v>
+        <v>28668</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -657,27 +657,27 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
       </c>
       <c r="H6" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I6" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8790140722709167</v>
+        <v>0.9066252696552797</v>
       </c>
       <c r="K6" t="n">
-        <v>7.361985840852591</v>
+        <v>7.530414144897206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1228</v>
+        <v>23740</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -694,27 +694,27 @@
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="H7" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.005714823075077572</v>
+        <v>0.9833729197174315</v>
       </c>
       <c r="K7" t="n">
-        <v>1.965139579242027</v>
+        <v>7.998574810276332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1372</v>
+        <v>14765</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -731,133 +731,207 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01435366246021119</v>
+        <v>0.9135837784148289</v>
       </c>
       <c r="K8" t="n">
-        <v>2.087557341007288</v>
+        <v>7.572861048330456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2581</v>
+        <v>26131</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DOTAP</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>12.515</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H9" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8703719264843812</v>
+        <v>0.9833729197174315</v>
       </c>
       <c r="K9" t="n">
-        <v>7.309268751554725</v>
+        <v>7.998574810276332</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3505</v>
+        <v>26186</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DSPC</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>6.12</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
+        <v>80</v>
+      </c>
+      <c r="H10" t="n">
         <v>70</v>
       </c>
-      <c r="H10" t="n">
-        <v>25</v>
-      </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="J10" t="n">
-        <v>0.901182782246763</v>
+        <v>0.8790140722709167</v>
       </c>
       <c r="K10" t="n">
-        <v>7.497214971705254</v>
+        <v>7.361985840852591</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4080</v>
+        <v>14608</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DSPC</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
+        <v>9.784000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>80</v>
+      </c>
+      <c r="H11" t="n">
+        <v>75</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8799861653012702</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7.367915608337746</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>49643</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSPC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
         <v>6.12</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>8</v>
       </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" t="n">
-        <v>40</v>
-      </c>
-      <c r="H11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I11" t="n">
-        <v>25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.00701378717148632</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.042784101746066</v>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>450</v>
+      </c>
+      <c r="H12" t="n">
+        <v>75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>80</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.02254784829520736</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.862458125399235</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>47698</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSPC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" t="n">
+        <v>55</v>
+      </c>
+      <c r="I13" t="n">
+        <v>160</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.02821529602436637</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.827886694251365</v>
       </c>
     </row>
   </sheetData>
